--- a/2025-BBTANAUAN/02 - Coronation/Sheets/Master Copy/02 - Formal Wear.xlsx
+++ b/2025-BBTANAUAN/02 - Coronation/Sheets/Master Copy/02 - Formal Wear.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3876C64-9D3D-48E6-9FD9-7753A13F220A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A29FD08-FA84-4CBC-85C2-9849879EAD8E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
